--- a/similarities/split_global/harmonic_similarity_timestamps_226.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_226.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,378 +484,390 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.680000')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:48.160000')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
+          <t>['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:22.379117', '0:02:29.240614')]</t>
+          <t>('0:03:56.780000', '0:04:09.140000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:01.080000', '0:02:02.360000')]</t>
+          <t>('0:04:13', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=142.379117']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=236.78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=121.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=253.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:01:22.070000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:17.160000')]</t>
+          <t>('0:00:12.420000', '0:00:24.260000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=12.42</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:32.200000', '0:00:33.700000'), ('0:00:08.200000', '0:00:12.660000'), ('0:00:32.060000', '0:00:33.280000')]</t>
+          <t>('0:00:43.260000', '0:00:45.660000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:25.140000', '0:00:42.540000'), ('0:00:01.440000', '0:00:06.840000'), ('0:00:49.080000', '0:00:57.840000')]</t>
+          <t>('0:00:04.103323', '0:00:13.890534')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=32.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=32.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=25.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=49.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>jaah_65</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>jaah_51</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:min7', 'Bb:7', 'Bb:min7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A:min7', 'D:7', 'D:min7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+          <t>('0:00:27.650000', '0:00:29.490000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:05')]</t>
+          <t>('0:00:24.910000', '0:00:29')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=35.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=27.65</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-51#t=24.91</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:00:07.960000', '0:00:13.120000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>schubert-winterreise_43</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:06.300000', '0:00:14.360000')]</t>
+          <t>('0:00:59.100000', '0:01:09')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:07.420000', '0:00:27.640000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=59.1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=7.42</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['Bb:7', 'Eb:min', 'Ab:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:24.620000', '0:01:31.740000'), ('0:00:30.240000', '0:00:38.500000')]</t>
+          <t>('0:00:23.140000', '0:00:30.460000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:46.520000', '0:00:48.940000'), ('0:01:39.600000', '0:01:51.620000')]</t>
+          <t>('0:00:08.620975', '0:00:14.367913')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=30.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=23.14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=99.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -863,155 +875,159 @@
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min', 'A#:maj'], ['D#:min', 'A#:maj', 'D#:min'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min/G', 'G:maj'], ['C:min', 'G:maj', 'C:min'], ['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:13.860000', '0:00:18.620000'), ('0:00:00.780000', '0:00:05.980000'), ('0:02:07.600000', '0:02:12.400000')]</t>
+          <t>('0:00:50.160000', '0:00:52.820000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:32.660000', '0:00:35.460000'), ('0:00:07.960000', '0:00:13.120000'), ('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:01.640000', '0:00:23.480000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=13.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=32.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:14.180000', '0:00:18.920000'), ('0:00:01.880000', '0:00:06.560000'), ('0:02:04.920000', '0:02:08.840000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:31.980000', '0:00:34.580000'), ('0:00:08.240000', '0:00:13.460000'), ('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=14.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=31.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
+          <t>('0:00:01.540000', '0:00:06.880000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+          <t>('0:00:08.300000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1021,181 +1037,189 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:57.420000', '0:01:00.320000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+          <t>('0:00:24.260000', '0:00:27.200000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=57.42</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-30#t=24.26</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb:7', 'Ab']]</t>
+          <t>['A', 'E', 'B:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb:7', 'Ab']]</t>
+          <t>['C:maj', 'G:maj', 'D:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:16.540000', '0:00:37.670000')]</t>
+          <t>('0:01:44.354195', '0:01:53.665396')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:05.440000', '0:00:14.410000')]</t>
+          <t>('0:00:07.580000', '0:00:15.620000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=16.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=104.354195</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=7.58</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['A:min', 'E:maj/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:08.220000', '0:00:16.760000')]</t>
+          <t>('0:00:10.760000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:35.888000', '0:00:38.359000')]</t>
+          <t>('0:00:00.240000', '0:00:05.080000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=8.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:03.520000')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:48.420000', '0:00:58.560000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=48.42']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
